--- a/output/reports/_Agências_20220905.xlsx
+++ b/output/reports/_Agências_20220905.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agencia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Agency</t>
   </si>
@@ -100,6 +100,9 @@
     <t>U.S. Agency for International Development</t>
   </si>
   <si>
+    <t>U.S. Army Corps of Engineers</t>
+  </si>
+  <si>
     <t>3,061.5</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>274.5</t>
   </si>
   <si>
+    <t>334.8</t>
+  </si>
+  <si>
     <t>732.7</t>
   </si>
   <si>
@@ -248,6 +254,9 @@
   </si>
   <si>
     <t>23.7</t>
+  </si>
+  <si>
+    <t>71.7</t>
   </si>
 </sst>
 </file>
@@ -605,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -644,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -658,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -672,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -686,10 +695,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -700,10 +709,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -714,10 +723,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -728,10 +737,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -742,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -756,10 +765,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -770,10 +779,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -784,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -798,10 +807,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -812,10 +821,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -826,10 +835,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -840,10 +849,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -854,10 +863,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -868,10 +877,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -882,10 +891,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -896,10 +905,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -910,10 +919,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -924,10 +933,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -938,10 +947,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -952,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -966,10 +975,24 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/output/reports/_Agências_20220905.xlsx
+++ b/output/reports/_Agências_20220905.xlsx
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+  <si>
+    <t>Unnamed: 0.7</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.6</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.5</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.4</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.3</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.2</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Agency</t>
   </si>
@@ -614,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,369 +654,1017 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="L20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="K21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="L21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="K23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="L23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="K24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="L24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="K25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="L25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="K26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="L26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="K27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
+      <c r="L27" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/output/reports/_Agências_20220905.xlsx
+++ b/output/reports/_Agências_20220905.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agencia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
